--- a/files/ai/파이토치딥러닝모델.xlsx
+++ b/files/ai/파이토치딥러닝모델.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJ\Desktop\PARKHJ\인공지능\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13870C8D-F33C-4123-9E2C-7F92889E9FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE4CC18-83AC-42D1-91D8-A7B34A70C383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="680" windowWidth="17090" windowHeight="14320" activeTab="3" xr2:uid="{45149032-7F61-4010-BDFE-565808174ED5}"/>
+    <workbookView xWindow="1040" yWindow="0" windowWidth="17090" windowHeight="14320" firstSheet="2" activeTab="3" xr2:uid="{45149032-7F61-4010-BDFE-565808174ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="심층학습이란" sheetId="2" r:id="rId1"/>
     <sheet name="Google Colaboratory" sheetId="3" r:id="rId2"/>
     <sheet name="Google Colaboratory 기능" sheetId="4" r:id="rId3"/>
-    <sheet name="구현의개요 " sheetId="5" r:id="rId4"/>
+    <sheet name="심층학습" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
   <si>
     <t>1. 심층학습</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +363,218 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - PyTorch에서 가장 기본이 되는 데이터 구조 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 수치 계산 라이브러리 NumPy의 배열과 취급 방법이 비슷하지만 차이점도 많다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     Tensor는 계산 이력의 유지나 자동 미분에 대응하고 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 패키지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - !pip list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Tensor 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - import torch </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     a = torch.tensor([1,2])  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    -- 다른 생성 은 코드 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. numpy 배열과 Tensor의 상호 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 기계학습에서 수치 연산 라이브러리 NumPy의 배열이 자주 사용되므로 Tensor와 상호 변환은 중요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 코드 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 범위를 지정하여 Tensor의 일부에 접근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 다양한 방법으로 Tensor의 일부에 범위를 지정하여 접근할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 1 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 2 Tensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 3 활성화 함수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   1. 시그모이드 함수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     - 0과 1 사이를 매끄럽게 변화하는 함수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     - 함수로써 x가 작아지면 함수의 출력 y는 0에 가까워지고 x가 커지면 y는 1에 가까워 진다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     - 함수 : Sigmoid() </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. tanh (하이퍼볼릭 탄젠트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - -1과 1사이를 매끄럽게 변화하는 함수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - 시그모이드와 비슷하지만 0을 중심으로 대칭히기 떄문에 균형 잡힌 활성화 함수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - 함수 : Tanh()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. ReLU </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - 램프 함수라고도 하며, 인공 신경망에서 많이 사용 된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     - 입력값  x가 0보다 작거나 같을 때 0을 출력하고, x가 0보다 클 경우 입력값을 그대로 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     - x, &gt; 0 범위에서만 함수가 활성화 된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. 항등함수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - 입력값을 그대로 출력값으로 반환하는 함수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       - x = y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    5. 소프트맥스 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - 신경망에서 분류 작업을 수행할 떄 주로 사용되는 활성화 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - 입력된 값들을 각 클래스에 대한 확률로 변환하느 ㄴ역할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - 모델의 출력값을 각 클래스에 대한 확률 분포로 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - 입력된 값들을 지수 함수를 통해 양수로 변환하고, 이들을 모두 더한 값으로 각 클레스에 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         대한 확률을 계산한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - 입력값들을 양수로 만드는 이유는 출력값을 확률로 해석하기 위함이다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 손실 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 출려과 정답 사이의 오차를 정의한느 함수 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 평균 제곱 오차와 교차 엔트로피오차 등이 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. 평균 제곱오차 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - 출력값과 정답값의 차를 제곱하여 전체 출력층의 뉴런으로 평균을 취함으로써 정의되는 오차 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - 사용함수 MSELoss()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. 교차 엔트로피 오차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - 신경망에서 분류 작업을 수행할때 주로 사용되는 손실 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - 신경망에서 분류를 실시할 떄는 one-hot 표현이 많이 사용된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - one-hot 정답으로 선택된 클래스 요소만 1 나머지는 0 형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      - 함수 : CrossEntropyLoss()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,10 +1256,59 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>217786</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>591349</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>79804</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F579ED9C-6389-40AF-A607-F7E8EC428186}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="217786" y="1562100"/>
+          <a:ext cx="3675563" cy="1972104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1085,7 +1346,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1191,7 +1452,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1333,7 +1594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1540,8 +1801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E1C9EF-5518-4A88-9E4C-3C4961EAA4F5}">
   <dimension ref="A1:A92"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1742,141 +2003,412 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E90A3D6-1D87-4E55-86E1-A5962D75FA72}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>